--- a/Gestao Estrategica TI/05 - Infraestrutura de TI/análise.xlsx
+++ b/Gestao Estrategica TI/05 - Infraestrutura de TI/análise.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="146">
   <si>
     <t>Análise de Ferramentas de BPM</t>
   </si>
@@ -126,16 +126,10 @@
 Licença flutuante = +1</t>
   </si>
   <si>
-    <t>PC05</t>
-  </si>
-  <si>
     <t xml:space="preserve">24x7 = Para erros críticos + 24x5 NBD (erros não críticos) = 5
 24x7 = Para erros críticos + 48x5 NBD (erros não críticos) = 3
 Qualquer coisa diferente dos demais = 1
 </t>
-  </si>
-  <si>
-    <t>PC06</t>
   </si>
   <si>
     <t>Suporte - Prazo de Atendimento</t>
@@ -151,9 +145,6 @@
 Máximo = 5</t>
   </si>
   <si>
-    <t>PC07</t>
-  </si>
-  <si>
     <t>Treinamento</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
   </si>
   <si>
     <t>5 = Sim, 2 = Parcial e 1 = Não</t>
-  </si>
-  <si>
-    <t>PC08</t>
   </si>
   <si>
     <t>Até  1 milhão de reais = 5
@@ -233,12 +221,6 @@
     <t>U$ 15 Bi</t>
   </si>
   <si>
-    <t>PC09</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
     <t>Quantidade de Fóruns e Comunidades Disponíveis para responder dúvidas</t>
   </si>
   <si>
@@ -351,9 +333,6 @@
   </si>
   <si>
     <t>Utiliza = 5, Não utiliza = 1</t>
-  </si>
-  <si>
-    <t>PC11</t>
   </si>
   <si>
     <t>Disponibilidade de recursos humanos conhecedores da ferramenta e Facilidade de obtenção de mão de obra no mercado</t>
@@ -411,21 +390,12 @@
     <t>RTR05</t>
   </si>
   <si>
-    <t>Pontuação média atribuida pelo grupo de testes</t>
-  </si>
-  <si>
     <t>RTR06</t>
   </si>
   <si>
-    <t>Pontuação média atribuida pelo grupo de gestores</t>
-  </si>
-  <si>
     <t>RTR07</t>
   </si>
   <si>
-    <t>Pontuação média atribuida pelo grupo de infraestrutura</t>
-  </si>
-  <si>
     <t>Resultado</t>
   </si>
   <si>
@@ -466,6 +436,48 @@
   </si>
   <si>
     <t>Ferramenta</t>
+  </si>
+  <si>
+    <t>Equipe de suporte em Português</t>
+  </si>
+  <si>
+    <t>PF04</t>
+  </si>
+  <si>
+    <t>PF05</t>
+  </si>
+  <si>
+    <t>PF06</t>
+  </si>
+  <si>
+    <t>PF07</t>
+  </si>
+  <si>
+    <t>PF08</t>
+  </si>
+  <si>
+    <t>PF09</t>
+  </si>
+  <si>
+    <t>PF10</t>
+  </si>
+  <si>
+    <t>PF11</t>
+  </si>
+  <si>
+    <t>Pontuação média atribuída pelo grupo de testes</t>
+  </si>
+  <si>
+    <t>Pontuação média atribuída pelo grupo de gestores</t>
+  </si>
+  <si>
+    <t>Pontuação média atribuída pelo grupo de infraestrutura</t>
+  </si>
+  <si>
+    <t>RTR08</t>
+  </si>
+  <si>
+    <t>Acessibilidade</t>
   </si>
 </sst>
 </file>
@@ -622,10 +634,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,13 +661,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,19 +676,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,9 +980,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
       <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
@@ -993,59 +1005,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1129,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1170,7 +1182,7 @@
       </c>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1246,69 +1258,69 @@
       </c>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="15">
+    <row r="9" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
         <f>SUM(F5:F8)</f>
         <v>64</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15">
+      <c r="F9" s="20"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="19">
         <f>SUM(I5:I8)</f>
         <v>56</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="15">
+      <c r="I9" s="20"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="19">
         <f>SUM(L5:L8)</f>
         <v>48</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1366,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="2">
-        <f>E13*$C13</f>
+        <f t="shared" ref="F13:F23" si="0">E13*$C13</f>
         <v>20</v>
       </c>
       <c r="G13" s="2"/>
@@ -1374,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="2">
-        <f>H13*$C13</f>
+        <f t="shared" ref="I13:I23" si="1">H13*$C13</f>
         <v>20</v>
       </c>
       <c r="J13" s="2"/>
@@ -1382,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="2">
-        <f>K13*$C13</f>
+        <f t="shared" ref="L13:L23" si="2">K13*$C13</f>
         <v>20</v>
       </c>
       <c r="M13" s="2"/>
@@ -1404,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="2">
-        <f>E14*$C14</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G14" s="2"/>
@@ -1412,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="2">
-        <f>H14*$C14</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J14" s="2"/>
@@ -1420,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="2">
-        <f>K14*$C14</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M14" s="2"/>
@@ -1442,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="2">
-        <f>E15*$C15</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G15" s="2"/>
@@ -1450,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f>H15*$C15</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J15" s="2"/>
@@ -1458,17 +1470,17 @@
         <v>4</v>
       </c>
       <c r="L15" s="2">
-        <f>K15*$C15</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -1480,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="2">
-        <f>E16*$C16</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G16" s="2"/>
@@ -1488,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f>H16*$C16</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J16" s="2"/>
@@ -1496,29 +1508,29 @@
         <v>5</v>
       </c>
       <c r="L16" s="2">
-        <f>K16*$C16</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="2">
-        <f>E17*$C17</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G17" s="2"/>
@@ -1526,7 +1538,7 @@
         <v>5</v>
       </c>
       <c r="I17" s="2">
-        <f>H17*$C17</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="J17" s="2"/>
@@ -1534,29 +1546,29 @@
         <v>5</v>
       </c>
       <c r="L17" s="2">
-        <f>K17*$C17</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
       </c>
       <c r="F18" s="2">
-        <f>E18*$C18</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G18" s="2"/>
@@ -1564,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="2">
-        <f>H18*$C18</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J18" s="2"/>
@@ -1572,17 +1584,17 @@
         <v>3</v>
       </c>
       <c r="L18" s="2">
-        <f>K18*$C18</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1592,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="2">
-        <f>E19*$C19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G19" s="2"/>
@@ -1600,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="2">
-        <f>H19*$C19</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J19" s="2"/>
@@ -1608,29 +1620,29 @@
         <v>2</v>
       </c>
       <c r="L19" s="2">
-        <f>K19*$C19</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
       </c>
       <c r="F20" s="2">
-        <f>E20*$C20</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G20" s="2"/>
@@ -1638,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="2">
-        <f>H20*$C20</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J20" s="2"/>
@@ -1646,29 +1658,29 @@
         <v>5</v>
       </c>
       <c r="L20" s="2">
-        <f>K20*$C20</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <f>E21*$C21</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G21" s="2"/>
@@ -1676,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="2">
-        <f>H21*$C21</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J21" s="2"/>
@@ -1684,29 +1696,29 @@
         <v>3</v>
       </c>
       <c r="L21" s="2">
-        <f>K21*$C21</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2">
         <v>5</v>
       </c>
       <c r="F22" s="2">
-        <f>E22*$C22</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G22" s="2"/>
@@ -1714,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="2">
-        <f>H22*$C22</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J22" s="2"/>
@@ -1722,29 +1734,29 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <f>K22*$C22</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
       </c>
       <c r="F23" s="2">
-        <f>E23*$C23</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G23" s="2"/>
@@ -1752,7 +1764,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="2">
-        <f>H23*$C23</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J23" s="2"/>
@@ -1760,74 +1772,74 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <f>K23*$C23</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="15">
+    <row r="24" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19">
         <f>SUM(F13:F23)</f>
         <v>181</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15">
+      <c r="F24" s="20"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="19">
         <f>SUM(I13:I23)</f>
         <v>181</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="15">
+      <c r="I24" s="20"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="19">
         <f>SUM(L13:L23)</f>
         <v>160</v>
       </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9" t="s">
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1872,10 +1884,10 @@
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1885,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="2">
-        <f>E28*$C28</f>
+        <f t="shared" ref="F28:F34" si="3">E28*$C28</f>
         <v>5</v>
       </c>
       <c r="G28" s="2"/>
@@ -1893,39 +1905,39 @@
         <v>5</v>
       </c>
       <c r="I28" s="2">
-        <f>H28*$C28</f>
+        <f t="shared" ref="I28:I34" si="4">H28*$C28</f>
         <v>5</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K28" s="2">
         <v>5</v>
       </c>
       <c r="L28" s="2">
-        <f>K28*$C28</f>
+        <f t="shared" ref="L28:L34" si="5">K28*$C28</f>
         <v>5</v>
       </c>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2">
         <v>5</v>
       </c>
       <c r="F29" s="2">
-        <f>E29*$C29</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G29" s="2"/>
@@ -1933,41 +1945,41 @@
         <v>4</v>
       </c>
       <c r="I29" s="2">
-        <f>H29*$C29</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K29" s="2">
         <v>3</v>
       </c>
       <c r="L29" s="2">
-        <f>K29*$C29</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2">
         <v>5</v>
       </c>
       <c r="F30" s="2">
-        <f>E30*$C30</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G30" s="2"/>
@@ -1975,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="2">
-        <f>H30*$C30</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J30" s="2"/>
@@ -1983,29 +1995,29 @@
         <v>2</v>
       </c>
       <c r="L30" s="2">
-        <f>K30*$C30</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
       </c>
       <c r="F31" s="2">
-        <f>E31*$C31</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G31" s="2"/>
@@ -2013,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="2">
-        <f>H31*$C31</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J31" s="2"/>
@@ -2021,29 +2033,29 @@
         <v>2</v>
       </c>
       <c r="L31" s="2">
-        <f>K31*$C31</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2">
         <v>5</v>
       </c>
       <c r="F32" s="2">
-        <f>E32*$C32</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="G32" s="2"/>
@@ -2051,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="2">
-        <f>H32*$C32</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J32" s="2"/>
@@ -2059,29 +2071,29 @@
         <v>5</v>
       </c>
       <c r="L32" s="2">
-        <f>K32*$C32</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
       </c>
       <c r="F33" s="2">
-        <f>E33*$C33</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G33" s="2"/>
@@ -2089,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="2">
-        <f>H33*$C33</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="J33" s="2"/>
@@ -2097,29 +2109,29 @@
         <v>4</v>
       </c>
       <c r="L33" s="2">
-        <f>K33*$C33</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E34" s="2">
         <v>5</v>
       </c>
       <c r="F34" s="2">
-        <f>E34*$C34</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G34" s="2"/>
@@ -2127,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="2">
-        <f>H34*$C34</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J34" s="2"/>
@@ -2135,74 +2147,74 @@
         <v>5</v>
       </c>
       <c r="L34" s="2">
-        <f>K34*$C34</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="15">
+    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19">
         <f>SUM(F28:F34)</f>
         <v>83</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="15">
+      <c r="F35" s="20"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="19">
         <f>SUM(I28:I34)</f>
         <v>77</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="15">
+      <c r="I35" s="20"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="19">
         <f>SUM(L28:L34)</f>
         <v>71</v>
       </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="17"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+      <c r="A36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="9" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="9" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="9" t="s">
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="11"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2247,22 +2259,22 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f>E39*$C39</f>
+        <f t="shared" ref="F39:F49" si="6">E39*$C39</f>
         <v>10</v>
       </c>
       <c r="G39" s="2"/>
@@ -2270,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="I39" s="2">
-        <f>H39*$C39</f>
+        <f t="shared" ref="I39:I49" si="7">H39*$C39</f>
         <v>10</v>
       </c>
       <c r="J39" s="2"/>
@@ -2278,29 +2290,29 @@
         <v>1</v>
       </c>
       <c r="L39" s="2">
-        <f>K39*$C39</f>
+        <f t="shared" ref="L39:L49" si="8">K39*$C39</f>
         <v>2</v>
       </c>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2">
         <v>4</v>
       </c>
       <c r="F40" s="2">
-        <f>E40*$C40</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G40" s="2"/>
@@ -2308,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="I40" s="2">
-        <f>H40*$C40</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="J40" s="2"/>
@@ -2316,29 +2328,29 @@
         <v>5</v>
       </c>
       <c r="L40" s="2">
-        <f>K40*$C40</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2">
-        <f>E41*$C41</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G41" s="2"/>
@@ -2346,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="I41" s="2">
-        <f>H41*$C41</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J41" s="2"/>
@@ -2354,29 +2366,29 @@
         <v>2</v>
       </c>
       <c r="L41" s="2">
-        <f>K41*$C41</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
       </c>
       <c r="F42" s="2">
-        <f>E42*$C42</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="G42" s="2"/>
@@ -2384,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="I42" s="2">
-        <f>H42*$C42</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="J42" s="2"/>
@@ -2392,17 +2404,17 @@
         <v>5</v>
       </c>
       <c r="L42" s="2">
-        <f>K42*$C42</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
@@ -2412,17 +2424,17 @@
         <v>4</v>
       </c>
       <c r="F43" s="2">
-        <f>E43*$C43</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H43" s="2">
         <v>5</v>
       </c>
       <c r="I43" s="2">
-        <f>H43*$C43</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="J43" s="2"/>
@@ -2430,17 +2442,17 @@
         <v>5</v>
       </c>
       <c r="L43" s="2">
-        <f>K43*$C43</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2">
         <v>4</v>
@@ -2450,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="2">
-        <f>E44*$C44</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G44" s="2"/>
@@ -2458,29 +2470,29 @@
         <v>4</v>
       </c>
       <c r="I44" s="2">
-        <f>H44*$C44</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K44" s="2">
         <v>4</v>
       </c>
       <c r="L44" s="2">
-        <f>K44*$C44</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2">
         <v>5</v>
@@ -2490,7 +2502,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="2">
-        <f>E45*$C45</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="G45" s="2"/>
@@ -2498,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="I45" s="2">
-        <f>H45*$C45</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="J45" s="2"/>
@@ -2506,29 +2518,29 @@
         <v>5</v>
       </c>
       <c r="L45" s="2">
-        <f>K45*$C45</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="2">
-        <f>E46*$C46</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G46" s="2"/>
@@ -2536,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="I46" s="2">
-        <f>H46*$C46</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="J46" s="2"/>
@@ -2544,29 +2556,29 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <f>K46*$C46</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2">
         <v>3</v>
       </c>
       <c r="F47" s="2">
-        <f>E47*$C47</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G47" s="2"/>
@@ -2574,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="I47" s="2">
-        <f>H47*$C47</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="J47" s="2"/>
@@ -2582,29 +2594,29 @@
         <v>3</v>
       </c>
       <c r="L47" s="2">
-        <f>K47*$C47</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
       </c>
       <c r="F48" s="2">
-        <f>E48*$C48</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="G48" s="2"/>
@@ -2612,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="2">
-        <f>H48*$C48</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J48" s="2"/>
@@ -2620,29 +2632,29 @@
         <v>2</v>
       </c>
       <c r="L48" s="2">
-        <f>K48*$C48</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <f>E49*$C49</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="G49" s="2"/>
@@ -2650,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="2">
-        <f>H49*$C49</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="J49" s="2"/>
@@ -2658,74 +2670,74 @@
         <v>2</v>
       </c>
       <c r="L49" s="2">
-        <f>K49*$C49</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="15">
+    <row r="50" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19">
         <f>SUM(F39:F49)</f>
         <v>120</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="15">
+      <c r="F50" s="20"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="19">
         <f>SUM(I39:I49)</f>
         <v>130</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="15">
+      <c r="I50" s="20"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="19">
         <f>SUM(L39:L49)</f>
         <v>116</v>
       </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="17"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
+      <c r="A51" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="9" t="s">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="9" t="s">
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="9" t="s">
+      <c r="I52" s="14"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="11"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="15"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
@@ -2770,10 +2782,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
@@ -2783,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="2">
-        <f>E54*$C54</f>
+        <f t="shared" ref="F54:F61" si="9">E54*$C54</f>
         <v>10</v>
       </c>
       <c r="G54" s="2"/>
@@ -2791,7 +2803,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="2">
-        <f>H54*$C54</f>
+        <f t="shared" ref="I54:I61" si="10">H54*$C54</f>
         <v>15</v>
       </c>
       <c r="J54" s="2"/>
@@ -2799,17 +2811,17 @@
         <v>3</v>
       </c>
       <c r="L54" s="2">
-        <f>K54*$C54</f>
+        <f t="shared" ref="L54:L61" si="11">K54*$C54</f>
         <v>15</v>
       </c>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
@@ -2819,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="2">
-        <f>E55*$C55</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="G55" s="2"/>
@@ -2827,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="I55" s="2">
-        <f>H55*$C55</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="J55" s="2"/>
@@ -2835,17 +2847,17 @@
         <v>3</v>
       </c>
       <c r="L55" s="2">
-        <f>K55*$C55</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C56" s="2">
         <v>3</v>
@@ -2855,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="2">
-        <f>E56*$C56</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G56" s="2"/>
@@ -2863,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="2">
-        <f>H56*$C56</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J56" s="2"/>
@@ -2871,17 +2883,17 @@
         <v>3</v>
       </c>
       <c r="L56" s="2">
-        <f>K56*$C56</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2">
         <v>5</v>
@@ -2891,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="F57" s="2">
-        <f>E57*$C57</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="G57" s="2"/>
@@ -2899,7 +2911,7 @@
         <v>4</v>
       </c>
       <c r="I57" s="2">
-        <f>H57*$C57</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J57" s="2"/>
@@ -2907,17 +2919,17 @@
         <v>3</v>
       </c>
       <c r="L57" s="2">
-        <f>K57*$C57</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C58" s="2">
         <v>5</v>
@@ -2927,7 +2939,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="2">
-        <f>E58*$C58</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="G58" s="2"/>
@@ -2935,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="2">
-        <f>H58*$C58</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="J58" s="2"/>
@@ -2943,17 +2955,17 @@
         <v>4</v>
       </c>
       <c r="L58" s="2">
-        <f>K58*$C58</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C59" s="2">
         <v>5</v>
@@ -2963,7 +2975,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <f>E59*$C59</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G59" s="2"/>
@@ -2971,7 +2983,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="2">
-        <f>H59*$C59</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J59" s="2"/>
@@ -2979,17 +2991,17 @@
         <v>2</v>
       </c>
       <c r="L59" s="2">
-        <f>K59*$C59</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C60" s="2">
         <v>3</v>
@@ -2999,7 +3011,7 @@
         <v>4</v>
       </c>
       <c r="F60" s="2">
-        <f>E60*$C60</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="G60" s="2"/>
@@ -3007,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="2">
-        <f>H60*$C60</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="J60" s="2"/>
@@ -3015,412 +3027,453 @@
         <v>4</v>
       </c>
       <c r="L60" s="2">
-        <f>K60*$C60</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="15">
-        <f>SUM(F54:F60)</f>
-        <v>100</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="15">
-        <f>SUM(I54:I60)</f>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19">
+        <f>SUM(F54:F61)</f>
         <v>104</v>
       </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="15">
-        <f>SUM(L54:L60)</f>
-        <v>93</v>
-      </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="17"/>
-    </row>
-    <row r="62" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="20"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="H62" s="19">
+        <f>SUM(I54:I61)</f>
+        <v>108</v>
+      </c>
+      <c r="I62" s="20"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="K62" s="19">
+        <f>SUM(L54:L61)</f>
+        <v>97</v>
+      </c>
+      <c r="L62" s="20"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="9" t="s">
+    <row r="63" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="9" t="s">
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="9" t="s">
+      <c r="I64" s="14"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="11"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="L64" s="14"/>
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="C65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J64" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M65" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2">
+      <c r="D66" s="3"/>
+      <c r="E66" s="2">
         <f>E9</f>
         <v>64</v>
       </c>
-      <c r="F65" s="2">
-        <f>E65*$C65</f>
+      <c r="F66" s="2">
+        <f>E66*$C66</f>
         <v>64</v>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2">
         <f>H9</f>
         <v>56</v>
       </c>
-      <c r="I65" s="2">
-        <f>H65*$C65</f>
+      <c r="I66" s="2">
+        <f>H66*$C66</f>
         <v>56</v>
       </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2">
+      <c r="J66" s="2"/>
+      <c r="K66" s="2">
         <f>K9</f>
         <v>48</v>
       </c>
-      <c r="L65" s="2">
-        <f>K65*$C65</f>
+      <c r="L66" s="2">
+        <f>K66*$C66</f>
         <v>48</v>
       </c>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="2">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="2">
         <v>2</v>
       </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2">
         <f>E24</f>
         <v>181</v>
       </c>
-      <c r="F66" s="2">
-        <f>E66*$C66</f>
+      <c r="F67" s="2">
+        <f>E67*$C67</f>
         <v>362</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2">
         <f>H24</f>
         <v>181</v>
       </c>
-      <c r="I66" s="2">
-        <f>H66*$C66</f>
+      <c r="I67" s="2">
+        <f>H67*$C67</f>
         <v>362</v>
       </c>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2">
         <f>K24</f>
         <v>160</v>
       </c>
-      <c r="L66" s="2">
-        <f>K66*$C66</f>
+      <c r="L67" s="2">
+        <f>K67*$C67</f>
         <v>320</v>
       </c>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="2">
         <v>2</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2">
         <f>E35</f>
         <v>83</v>
       </c>
-      <c r="F67" s="2">
-        <f>E67*$C67</f>
+      <c r="F68" s="2">
+        <f>E68*$C68</f>
         <v>166</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2">
         <f>H35</f>
         <v>77</v>
       </c>
-      <c r="I67" s="2">
-        <f>H67*$C67</f>
+      <c r="I68" s="2">
+        <f>H68*$C68</f>
         <v>154</v>
       </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2">
+      <c r="J68" s="2"/>
+      <c r="K68" s="2">
         <f>K35</f>
         <v>71</v>
       </c>
-      <c r="L67" s="2">
-        <f>K67*$C67</f>
+      <c r="L68" s="2">
+        <f>K68*$C68</f>
         <v>142</v>
       </c>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
         <f>E50</f>
         <v>120</v>
       </c>
-      <c r="F68" s="2">
-        <f>E68*$C68</f>
+      <c r="F69" s="2">
+        <f>E69*$C69</f>
         <v>360</v>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
         <f>H50</f>
         <v>130</v>
       </c>
-      <c r="I68" s="2">
-        <f>H68*$C68</f>
+      <c r="I69" s="2">
+        <f>H69*$C69</f>
         <v>390</v>
       </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2">
+      <c r="J69" s="2"/>
+      <c r="K69" s="2">
         <f>K50</f>
         <v>116</v>
       </c>
-      <c r="L68" s="2">
-        <f>K68*$C68</f>
-        <v>348</v>
-      </c>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="2">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2">
-        <f>E61</f>
-        <v>100</v>
-      </c>
-      <c r="F69" s="2">
-        <f>E69*$C69</f>
-        <v>300</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2">
-        <f>H61</f>
-        <v>104</v>
-      </c>
-      <c r="I69" s="2">
-        <f>H69*$C69</f>
-        <v>312</v>
-      </c>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2">
-        <f>K61</f>
-        <v>93</v>
-      </c>
       <c r="L69" s="2">
         <f>K69*$C69</f>
-        <v>279</v>
+        <v>348</v>
       </c>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="15">
-        <f>SUM(F63:F69)</f>
-        <v>1252</v>
-      </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="15">
-        <f>SUM(I63:I69)</f>
-        <v>1274</v>
-      </c>
-      <c r="I70" s="16"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="15">
-        <f>SUM(L63:L69)</f>
-        <v>1137</v>
-      </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="17"/>
-    </row>
-    <row r="72" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <f>E62</f>
+        <v>104</v>
+      </c>
+      <c r="F70" s="2">
+        <f>E70*$C70</f>
+        <v>312</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <f>H62</f>
+        <v>108</v>
+      </c>
+      <c r="I70" s="2">
+        <f>H70*$C70</f>
+        <v>324</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2">
+        <f>K62</f>
+        <v>97</v>
+      </c>
+      <c r="L70" s="2">
+        <f>K70*$C70</f>
+        <v>291</v>
+      </c>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19">
+        <f>SUM(F64:F70)</f>
+        <v>1264</v>
+      </c>
+      <c r="F71" s="20"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="19">
+        <f>SUM(I64:I70)</f>
+        <v>1286</v>
+      </c>
+      <c r="I71" s="20"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="19">
+        <f>SUM(L64:L70)</f>
+        <v>1149</v>
+      </c>
+      <c r="L71" s="20"/>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="73" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="B74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>1</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="2">
-        <f>H70</f>
-        <v>1274</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="2">
-        <f>E70</f>
-        <v>1252</v>
+        <f>H71</f>
+        <v>1286</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="2">
+        <f>E71</f>
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="2">
-        <f>K70</f>
-        <v>1137</v>
+      <c r="C77" s="2">
+        <f>K71</f>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="A62:M62"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:M25"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="H52:J52"/>
@@ -3434,30 +3487,25 @@
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="K37:M37"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:M25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="A63:M63"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="K71:L71"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
